--- a/reports/Results/undersampling/metrics3.xlsx
+++ b/reports/Results/undersampling/metrics3.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -464,13 +465,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D81" sqref="A1:D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -495,7 +496,7 @@
         <v>0.92087885390323465</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -509,7 +510,7 @@
         <v>0.93366008771929832</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -523,7 +524,7 @@
         <v>0.79886904761904742</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -537,7 +538,7 @@
         <v>0.95550168544032754</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -551,7 +552,7 @@
         <v>0.97533281733746136</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -565,7 +566,7 @@
         <v>0.99359477124183004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -579,7 +580,7 @@
         <v>0.94280952380952376</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -593,7 +594,7 @@
         <v>0.9901341664476152</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -607,7 +608,7 @@
         <v>0.9810008169934642</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -621,7 +622,7 @@
         <v>0.98567595459236335</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -635,7 +636,7 @@
         <v>0.92745238095238092</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -649,7 +650,7 @@
         <v>0.98672867328749669</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -663,7 +664,7 @@
         <v>0.97306290849673205</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -677,7 +678,7 @@
         <v>0.97414215686274508</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -691,7 +692,7 @@
         <v>0.86145238095238086</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -705,7 +706,7 @@
         <v>0.9836040480939674</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -719,7 +720,7 @@
         <v>0.95294602550871899</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -733,7 +734,7 @@
         <v>0.97263119195046444</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -747,7 +748,7 @@
         <v>0.83517857142857144</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -761,7 +762,7 @@
         <v>0.97569298923284986</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -775,7 +776,7 @@
         <v>0.94008479155534763</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -789,7 +790,7 @@
         <v>0.94819562637922516</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -803,7 +804,7 @@
         <v>0.78987123987123997</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -817,7 +818,7 @@
         <v>0.966815758001625</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -831,7 +832,7 @@
         <v>0.97788088761831649</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -845,7 +846,7 @@
         <v>0.99574942704354474</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -859,7 +860,7 @@
         <v>0.87411183261183256</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -873,7 +874,7 @@
         <v>0.98999027225939173</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -887,7 +888,7 @@
         <v>0.98253890187382464</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -901,7 +902,7 @@
         <v>0.98939439940198948</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -915,7 +916,7 @@
         <v>0.88200505050505063</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -929,7 +930,7 @@
         <v>0.99174566003527331</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -943,7 +944,7 @@
         <v>0.96851057441380817</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -957,7 +958,7 @@
         <v>0.98058250778317191</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -971,7 +972,7 @@
         <v>0.81269624819624797</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -985,7 +986,7 @@
         <v>0.98710829270890643</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>0.96009399393644945</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>0.97172502471174194</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>0.84545365745365741</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>0.98277812019725219</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>0.96375</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>0.9666544117647059</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>0.81399999999999972</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>0.97939393939393937</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>0.98161764705882359</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>0.99816176470588236</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>0.84050000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>0.99016934046345828</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>0.98525735294117656</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>0.99382352941176466</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>0.99703208556149747</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>0.96569852941176459</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>0.9882352941176471</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>0.79799999999999993</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>0.99106060606060598</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>0.96981617647058826</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>0.97231617647058821</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>0.99045454545454537</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>0.93791666666666662</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>0.94648674242424236</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>0.90523809523809551</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>0.95462448979591841</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>0.97758522727272723</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>0.9956912878787878</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>0.95285714285714296</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>0.98655102040816345</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>0.98246212121212129</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>0.98925189393939394</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>0.9514285714285714</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>0.98873469387755109</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>0.96868371212121218</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>0.98030303030303034</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>0.92142857142857126</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>0.98251428571428578</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>0.95969696969696972</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>0.9717329545454545</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>0.92761904761904779</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1604,4 +1605,1150 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78:G78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0.92087885390323465</v>
+      </c>
+      <c r="E2">
+        <v>0.93366008771929832</v>
+      </c>
+      <c r="F2">
+        <v>0.79886904761904742</v>
+      </c>
+      <c r="G2">
+        <v>0.95550168544032754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.97533281733746136</v>
+      </c>
+      <c r="E6">
+        <v>0.99359477124183004</v>
+      </c>
+      <c r="F6">
+        <v>0.94280952380952376</v>
+      </c>
+      <c r="G6">
+        <v>0.9901341664476152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0.9810008169934642</v>
+      </c>
+      <c r="E10">
+        <v>0.98567595459236335</v>
+      </c>
+      <c r="F10">
+        <v>0.92745238095238092</v>
+      </c>
+      <c r="G10">
+        <v>0.98672867328749669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0.97306290849673205</v>
+      </c>
+      <c r="E14">
+        <v>0.97414215686274508</v>
+      </c>
+      <c r="F14">
+        <v>0.86145238095238086</v>
+      </c>
+      <c r="G14">
+        <v>0.9836040480939674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0.95294602550871899</v>
+      </c>
+      <c r="E18">
+        <v>0.97263119195046444</v>
+      </c>
+      <c r="F18">
+        <v>0.83517857142857144</v>
+      </c>
+      <c r="G18">
+        <v>0.97569298923284986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>0.94008479155534763</v>
+      </c>
+      <c r="E22">
+        <v>0.94819562637922516</v>
+      </c>
+      <c r="F22">
+        <v>0.78987123987123997</v>
+      </c>
+      <c r="G22">
+        <v>0.966815758001625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>0.97788088761831649</v>
+      </c>
+      <c r="E26">
+        <v>0.99574942704354474</v>
+      </c>
+      <c r="F26">
+        <v>0.87411183261183256</v>
+      </c>
+      <c r="G26">
+        <v>0.98999027225939173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>0.98253890187382464</v>
+      </c>
+      <c r="E30">
+        <v>0.98939439940198948</v>
+      </c>
+      <c r="F30">
+        <v>0.88200505050505063</v>
+      </c>
+      <c r="G30">
+        <v>0.99174566003527331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>0.96851057441380817</v>
+      </c>
+      <c r="E34">
+        <v>0.98058250778317191</v>
+      </c>
+      <c r="F34">
+        <v>0.81269624819624797</v>
+      </c>
+      <c r="G34">
+        <v>0.98710829270890643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>0.96009399393644945</v>
+      </c>
+      <c r="E38">
+        <v>0.97172502471174194</v>
+      </c>
+      <c r="F38">
+        <v>0.84545365745365741</v>
+      </c>
+      <c r="G38">
+        <v>0.98277812019725219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>0.96375</v>
+      </c>
+      <c r="E42">
+        <v>0.9666544117647059</v>
+      </c>
+      <c r="F42">
+        <v>0.81399999999999972</v>
+      </c>
+      <c r="G42">
+        <v>0.97939393939393937</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>0.98161764705882359</v>
+      </c>
+      <c r="E46">
+        <v>0.99816176470588236</v>
+      </c>
+      <c r="F46">
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="G46">
+        <v>0.99016934046345828</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>0.98525735294117656</v>
+      </c>
+      <c r="E50">
+        <v>0.99382352941176466</v>
+      </c>
+      <c r="F50">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="G50">
+        <v>0.99703208556149747</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>0.96569852941176459</v>
+      </c>
+      <c r="E54">
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="F54">
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="G54">
+        <v>0.99106060606060598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>0.96981617647058826</v>
+      </c>
+      <c r="E58">
+        <v>0.97231617647058821</v>
+      </c>
+      <c r="F58">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.99045454545454537</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>0.93791666666666662</v>
+      </c>
+      <c r="E62">
+        <v>0.94648674242424236</v>
+      </c>
+      <c r="F62">
+        <v>0.90523809523809551</v>
+      </c>
+      <c r="G62">
+        <v>0.95462448979591841</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66">
+        <v>0.97758522727272723</v>
+      </c>
+      <c r="E66">
+        <v>0.9956912878787878</v>
+      </c>
+      <c r="F66">
+        <v>0.95285714285714296</v>
+      </c>
+      <c r="G66">
+        <v>0.98655102040816345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70">
+        <v>0.98246212121212129</v>
+      </c>
+      <c r="E70">
+        <v>0.98925189393939394</v>
+      </c>
+      <c r="F70">
+        <v>0.9514285714285714</v>
+      </c>
+      <c r="G70">
+        <v>0.98873469387755109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74">
+        <v>0.96868371212121218</v>
+      </c>
+      <c r="E74">
+        <v>0.98030303030303034</v>
+      </c>
+      <c r="F74">
+        <v>0.92142857142857126</v>
+      </c>
+      <c r="G74">
+        <v>0.98251428571428578</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78">
+        <v>0.95969696969696972</v>
+      </c>
+      <c r="E78">
+        <v>0.9717329545454545</v>
+      </c>
+      <c r="F78">
+        <v>0.92761904761904779</v>
+      </c>
+      <c r="G78">
+        <v>0.97647755102040823</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>